--- a/data/dados_raw_salgueiro.xlsx
+++ b/data/dados_raw_salgueiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94384930-ABF1-4956-9137-BFB3882537A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F55C8F-4EFA-476B-A42A-D219CB1FA47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SALGUEIRO" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Datas</t>
   </si>
@@ -145,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,10 +164,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -214,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -255,16 +251,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -505,22 +498,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2415,6 +2408,125 @@
         <v>3</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="4">
+        <v>216</v>
+      </c>
+      <c r="C101" s="4">
+        <v>110</v>
+      </c>
+      <c r="D101" s="4">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="4">
+        <v>237</v>
+      </c>
+      <c r="C102" s="4">
+        <v>113</v>
+      </c>
+      <c r="D102" s="4">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="4">
+        <v>237</v>
+      </c>
+      <c r="C103" s="4">
+        <v>115</v>
+      </c>
+      <c r="D103" s="4">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="4">
+        <v>255</v>
+      </c>
+      <c r="C104" s="4">
+        <v>115</v>
+      </c>
+      <c r="D104" s="4">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="4">
+        <v>264</v>
+      </c>
+      <c r="C105" s="4">
+        <v>115</v>
+      </c>
+      <c r="D105" s="4">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="4">
+        <v>272</v>
+      </c>
+      <c r="C106" s="4">
+        <v>115</v>
+      </c>
+      <c r="D106" s="4">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="4">
+        <v>274</v>
+      </c>
+      <c r="C107" s="4">
+        <v>115</v>
+      </c>
+      <c r="D107" s="4">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -2430,20 +2542,20 @@
   </sheetPr>
   <dimension ref="A1:E948"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2463,1798 +2575,1882 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>43927</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>43928</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>43929</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>43930</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>43931</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>43932</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>43933</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>43934</v>
       </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>43935</v>
       </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>43936</v>
       </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>43937</v>
       </c>
-      <c r="B13" s="23">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>43938</v>
       </c>
-      <c r="B14" s="23">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="B14" s="22">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>43939</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>43940</v>
       </c>
-      <c r="B16" s="23">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>43941</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>43942</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="B18" s="22">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>43943</v>
       </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>43944</v>
       </c>
-      <c r="B20" s="23">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="B20" s="22">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>43945</v>
       </c>
-      <c r="B21" s="23">
-        <v>0</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>43946</v>
       </c>
-      <c r="B22" s="23">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="B22" s="22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>43947</v>
       </c>
-      <c r="B23" s="23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="B23" s="22">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>43948</v>
       </c>
-      <c r="B24" s="23">
-        <v>0</v>
-      </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>43949</v>
       </c>
-      <c r="B25" s="23">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="B25" s="22">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>43950</v>
       </c>
-      <c r="B26" s="23">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="B26" s="22">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>43951</v>
       </c>
-      <c r="B27" s="23">
-        <v>0</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="B27" s="22">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>43952</v>
       </c>
-      <c r="B28" s="23">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="B28" s="22">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>43953</v>
       </c>
-      <c r="B29" s="23">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="B29" s="22">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>43954</v>
       </c>
-      <c r="B30" s="23">
-        <v>0</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0</v>
-      </c>
-      <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="B30" s="22">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>43955</v>
       </c>
-      <c r="B31" s="23">
-        <v>0</v>
-      </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="23">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="B31" s="22">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>43956</v>
       </c>
-      <c r="B32" s="23">
-        <v>0</v>
-      </c>
-      <c r="C32" s="23">
-        <v>0</v>
-      </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="B32" s="22">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>43957</v>
       </c>
-      <c r="B33" s="23">
-        <v>0</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
+      <c r="B33" s="22">
+        <v>0</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>43958</v>
       </c>
-      <c r="B34" s="23">
-        <v>0</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
+      <c r="B34" s="22">
+        <v>0</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>43959</v>
       </c>
-      <c r="B35" s="23">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="B35" s="22">
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>43960</v>
       </c>
-      <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="B36" s="22">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>43961</v>
       </c>
-      <c r="B37" s="23">
-        <v>0</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
+      <c r="B37" s="22">
+        <v>0</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>43962</v>
       </c>
-      <c r="B38" s="23">
-        <v>0</v>
-      </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="B38" s="22">
+        <v>0</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>43963</v>
       </c>
-      <c r="B39" s="23">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="B39" s="22">
+        <v>0</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>43964</v>
       </c>
-      <c r="B40" s="23">
-        <v>0</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0</v>
-      </c>
-      <c r="D40" s="23">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="B40" s="22">
+        <v>0</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>43965</v>
       </c>
-      <c r="B41" s="23">
-        <v>0</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0</v>
-      </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="B41" s="22">
+        <v>0</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>43966</v>
       </c>
-      <c r="B42" s="23">
-        <v>0</v>
-      </c>
-      <c r="C42" s="23">
-        <v>0</v>
-      </c>
-      <c r="D42" s="23">
-        <v>0</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="B42" s="22">
+        <v>0</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>43967</v>
       </c>
-      <c r="B43" s="23">
-        <v>0</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23">
-        <v>0</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>43968</v>
       </c>
-      <c r="B44" s="23">
-        <v>0</v>
-      </c>
-      <c r="C44" s="23">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
+      <c r="B44" s="22">
+        <v>0</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43969</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>1</v>
       </c>
-      <c r="C45" s="23">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <f t="shared" ref="E45:E100" si="0">B45-B44</f>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" ref="E45:E106" si="0">B45-B44</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>43970</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>1</v>
       </c>
-      <c r="C46" s="23">
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>43971</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>1</v>
       </c>
-      <c r="C47" s="23">
-        <v>0</v>
-      </c>
-      <c r="D47" s="23">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>43972</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>3</v>
       </c>
-      <c r="C48" s="23">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>43973</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>3</v>
       </c>
-      <c r="C49" s="23">
-        <v>0</v>
-      </c>
-      <c r="D49" s="23">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>43974</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>3</v>
       </c>
-      <c r="C50" s="23">
-        <v>0</v>
-      </c>
-      <c r="D50" s="23">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>43975</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="22">
         <v>3</v>
       </c>
-      <c r="C51" s="23">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>43976</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>3</v>
       </c>
-      <c r="C52" s="23">
-        <v>0</v>
-      </c>
-      <c r="D52" s="23">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="C52" s="22">
+        <v>0</v>
+      </c>
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>43977</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>3</v>
       </c>
-      <c r="C53" s="23">
-        <v>0</v>
-      </c>
-      <c r="D53" s="23">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+      <c r="D53" s="22">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>43978</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <v>3</v>
       </c>
-      <c r="C54" s="23">
-        <v>0</v>
-      </c>
-      <c r="D54" s="23">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="C54" s="22">
+        <v>0</v>
+      </c>
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>43979</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="22">
         <v>3</v>
       </c>
-      <c r="C55" s="23">
-        <v>0</v>
-      </c>
-      <c r="D55" s="23">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
+      <c r="C55" s="22">
+        <v>0</v>
+      </c>
+      <c r="D55" s="22">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>43980</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="22">
         <v>3</v>
       </c>
-      <c r="C56" s="23">
-        <v>0</v>
-      </c>
-      <c r="D56" s="23">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
+      <c r="C56" s="22">
+        <v>0</v>
+      </c>
+      <c r="D56" s="22">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>43981</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="22">
         <v>3</v>
       </c>
-      <c r="C57" s="23">
-        <v>0</v>
-      </c>
-      <c r="D57" s="23">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
+      <c r="C57" s="22">
+        <v>0</v>
+      </c>
+      <c r="D57" s="22">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>43982</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="22">
         <v>3</v>
       </c>
-      <c r="C58" s="23">
-        <v>0</v>
-      </c>
-      <c r="D58" s="23">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
+      <c r="C58" s="22">
+        <v>0</v>
+      </c>
+      <c r="D58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>43983</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="22">
         <v>3</v>
       </c>
-      <c r="C59" s="23">
-        <v>0</v>
-      </c>
-      <c r="D59" s="23">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
+      <c r="C59" s="22">
+        <v>0</v>
+      </c>
+      <c r="D59" s="22">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>43984</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="22">
         <v>3</v>
       </c>
-      <c r="C60" s="23">
-        <v>0</v>
-      </c>
-      <c r="D60" s="23">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
+      <c r="C60" s="22">
+        <v>0</v>
+      </c>
+      <c r="D60" s="22">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>43985</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="22">
         <v>3</v>
       </c>
-      <c r="C61" s="23">
-        <v>0</v>
-      </c>
-      <c r="D61" s="23">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
+      <c r="C61" s="22">
+        <v>0</v>
+      </c>
+      <c r="D61" s="22">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>43986</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="22">
         <v>3</v>
       </c>
-      <c r="C62" s="23">
-        <v>0</v>
-      </c>
-      <c r="D62" s="23">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
+      <c r="C62" s="22">
+        <v>0</v>
+      </c>
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>43987</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="22">
         <v>3</v>
       </c>
-      <c r="C63" s="23">
-        <v>0</v>
-      </c>
-      <c r="D63" s="23">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
+      <c r="C63" s="22">
+        <v>0</v>
+      </c>
+      <c r="D63" s="22">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>43988</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="22">
         <v>3</v>
       </c>
-      <c r="C64" s="23">
-        <v>0</v>
-      </c>
-      <c r="D64" s="23">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
+      <c r="C64" s="22">
+        <v>0</v>
+      </c>
+      <c r="D64" s="22">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>43989</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="22">
         <v>6</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>2</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="22">
         <v>2</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>43990</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="22">
         <v>6</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="22">
         <v>2</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="22">
         <v>2</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>43991</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="22">
         <v>6</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="22">
         <v>2</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="22">
         <v>2</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>43992</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="22">
         <v>6</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="22">
         <v>2</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="22">
         <v>2</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
+      <c r="A69" s="23">
         <v>43993</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="22">
         <v>7</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="22">
         <v>3</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>2</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>43994</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="22">
         <v>7</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="22">
         <v>3</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="22">
         <v>2</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="A71" s="23">
         <v>43995</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="22">
         <v>7</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="22">
         <v>3</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>2</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="A72" s="23">
         <v>43996</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="22">
         <v>7</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="22">
         <v>3</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>2</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>43997</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="22">
         <v>9</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="22">
         <v>3</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="22">
         <v>2</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+      <c r="A74" s="23">
         <v>43998</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="22">
         <v>9</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="22">
         <v>3</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="22">
         <v>2</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+      <c r="A75" s="23">
         <v>43999</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="22">
         <v>9</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="22">
         <v>3</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="22">
         <v>2</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+      <c r="A76" s="23">
         <v>44000</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="21">
         <v>10</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="21">
         <v>3</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>2</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="A77" s="23">
         <v>44001</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="21">
         <v>11</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="21">
         <v>3</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <v>2</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>44002</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="21">
         <v>11</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="21">
         <v>3</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="21">
         <v>2</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
+      <c r="A79" s="23">
         <v>44003</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="21">
         <v>11</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="21">
         <v>3</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="21">
         <v>2</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>44004</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="21">
         <v>11</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="21">
         <v>3</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="21">
         <v>2</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>44005</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="21">
         <v>11</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="21">
         <v>4</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="21">
         <v>3</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>44006</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="21">
         <v>11</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="21">
         <v>4</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="21">
         <v>3</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>44007</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="21">
         <v>12</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C83" s="21">
         <v>4</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="21">
         <v>3</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>44008</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="21">
         <v>12</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="21">
         <v>4</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="21">
         <v>3</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
+      <c r="A85" s="23">
         <v>44009</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="21">
         <v>12</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="21">
         <v>4</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="21">
         <v>3</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
+      <c r="A86" s="23">
         <v>44010</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="21">
         <v>12</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C86" s="21">
         <v>6</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="21">
         <v>3</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
+      <c r="A87" s="23">
         <v>44011</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="21">
         <v>12</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="21">
         <v>6</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="21">
         <v>3</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="24">
+      <c r="A88" s="23">
         <v>44012</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="21">
         <v>12</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="21">
         <v>6</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="21">
         <v>3</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
+      <c r="A89" s="23">
         <v>44013</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="21">
         <v>12</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="21">
         <v>9</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="21">
         <v>3</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>44014</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="21">
         <v>12</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="21">
         <v>9</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="21">
         <v>3</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
+      <c r="A91" s="23">
         <v>44015</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="21">
         <v>12</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="21">
         <v>9</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="21">
         <v>3</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
+      <c r="A92" s="23">
         <v>44016</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="21">
         <v>12</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="21">
         <v>9</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="21">
         <v>3</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="24">
+      <c r="A93" s="23">
         <v>44017</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="21">
         <v>12</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="21">
         <v>9</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="21">
         <v>3</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>44018</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="21">
         <v>13</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="21">
         <v>9</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="21">
         <v>3</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
+      <c r="A95" s="23">
         <v>44019</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="21">
         <v>13</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="21">
         <v>9</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="21">
         <v>3</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
+      <c r="A96" s="23">
         <v>44020</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="21">
         <v>13</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="21">
         <v>9</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="21">
         <v>3</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
+      <c r="A97" s="23">
         <v>44021</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="21">
         <v>15</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="21">
         <v>9</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="21">
         <v>3</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>44022</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="21">
         <v>16</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="21">
         <v>9</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="21">
         <v>3</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
+      <c r="A99" s="23">
         <v>44023</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="21">
         <v>16</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="21">
         <v>9</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="21">
         <v>3</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
+      <c r="A100" s="23">
         <v>44024</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="21">
         <v>16</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="21">
         <v>9</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="21">
         <v>3</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-    </row>
-    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-    </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-    </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="21">
+        <v>16</v>
+      </c>
+      <c r="C101" s="21">
+        <v>9</v>
+      </c>
+      <c r="D101" s="21">
+        <v>3</v>
+      </c>
+      <c r="E101" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="21">
+        <v>16</v>
+      </c>
+      <c r="C102" s="21">
+        <v>9</v>
+      </c>
+      <c r="D102" s="21">
+        <v>3</v>
+      </c>
+      <c r="E102" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="21">
+        <v>17</v>
+      </c>
+      <c r="C103" s="21">
+        <v>11</v>
+      </c>
+      <c r="D103" s="21">
+        <v>3</v>
+      </c>
+      <c r="E103" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="21">
+        <v>17</v>
+      </c>
+      <c r="C104" s="21">
+        <v>11</v>
+      </c>
+      <c r="D104" s="21">
+        <v>3</v>
+      </c>
+      <c r="E104" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="21">
+        <v>17</v>
+      </c>
+      <c r="C105" s="21">
+        <v>11</v>
+      </c>
+      <c r="D105" s="21">
+        <v>3</v>
+      </c>
+      <c r="E105" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="21">
+        <v>17</v>
+      </c>
+      <c r="C106" s="21">
+        <v>11</v>
+      </c>
+      <c r="D106" s="21">
+        <v>3</v>
+      </c>
+      <c r="E106" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="22">
+        <v>17</v>
+      </c>
+      <c r="C107" s="22">
+        <v>11</v>
+      </c>
+      <c r="D107" s="22">
+        <v>3</v>
+      </c>
+      <c r="E107" s="22">
+        <f t="shared" ref="E107" si="1">B107-B106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-    </row>
-    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
@@ -9287,20 +9483,20 @@
   </sheetPr>
   <dimension ref="A1:E1027"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11069,46 +11265,123 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="12">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="13">
+        <v>173</v>
+      </c>
+      <c r="C101" s="13">
+        <v>108</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="12">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="13">
+        <v>187</v>
+      </c>
+      <c r="C102" s="13">
+        <v>113</v>
+      </c>
+      <c r="D102" s="13">
+        <v>2</v>
+      </c>
+      <c r="E102" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="12">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="13">
+        <v>200</v>
+      </c>
+      <c r="C103" s="13">
+        <v>127</v>
+      </c>
+      <c r="D103" s="13">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="12">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="13">
+        <v>215</v>
+      </c>
+      <c r="C104" s="13">
+        <v>137</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="13">
+        <v>225</v>
+      </c>
+      <c r="C105" s="13">
+        <v>152</v>
+      </c>
+      <c r="D105" s="13">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="12">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="13">
+        <v>228</v>
+      </c>
+      <c r="C106" s="13">
+        <v>155</v>
+      </c>
+      <c r="D106" s="13">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="12">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="13">
+        <v>230</v>
+      </c>
+      <c r="C107" s="13">
+        <v>155</v>
+      </c>
+      <c r="D107" s="13">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -16645,20 +16918,20 @@
   </sheetPr>
   <dimension ref="A1:E1036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -16672,6 +16945,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -18424,46 +18700,123 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="15">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="13">
+        <v>40</v>
+      </c>
+      <c r="C101" s="13">
+        <v>26</v>
+      </c>
+      <c r="D101" s="13">
+        <v>4</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="15">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="13">
+        <v>40</v>
+      </c>
+      <c r="C102" s="13">
+        <v>26</v>
+      </c>
+      <c r="D102" s="13">
+        <v>4</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="13">
+        <v>40</v>
+      </c>
+      <c r="C103" s="13">
+        <v>26</v>
+      </c>
+      <c r="D103" s="13">
+        <v>4</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="15">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="13">
+        <v>41</v>
+      </c>
+      <c r="C104" s="13">
+        <v>26</v>
+      </c>
+      <c r="D104" s="13">
+        <v>4</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="15">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="13">
+        <v>43</v>
+      </c>
+      <c r="C105" s="13">
+        <v>26</v>
+      </c>
+      <c r="D105" s="13">
+        <v>4</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="15">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="13">
+        <v>48</v>
+      </c>
+      <c r="C106" s="13">
+        <v>26</v>
+      </c>
+      <c r="D106" s="13">
+        <v>4</v>
+      </c>
+      <c r="E106" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="15">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="13">
+        <v>52</v>
+      </c>
+      <c r="C107" s="13">
+        <v>26</v>
+      </c>
+      <c r="D107" s="13">
+        <v>4</v>
+      </c>
+      <c r="E107" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -24054,20 +24407,20 @@
   </sheetPr>
   <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -25836,46 +26189,123 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="15">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="13">
+        <v>45</v>
+      </c>
+      <c r="C101" s="13">
+        <v>38</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="15">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="13">
+        <v>55</v>
+      </c>
+      <c r="C102" s="13">
+        <v>38</v>
+      </c>
+      <c r="D102" s="13">
+        <v>1</v>
+      </c>
+      <c r="E102" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="13">
+        <v>64</v>
+      </c>
+      <c r="C103" s="13">
+        <v>39</v>
+      </c>
+      <c r="D103" s="13">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="15">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="13">
+        <v>69</v>
+      </c>
+      <c r="C104" s="13">
+        <v>39</v>
+      </c>
+      <c r="D104" s="13">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="15">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="13">
+        <v>69</v>
+      </c>
+      <c r="C105" s="13">
+        <v>39</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="15">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="13">
+        <v>72</v>
+      </c>
+      <c r="C106" s="13">
+        <v>40</v>
+      </c>
+      <c r="D106" s="13">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="15">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="13">
+        <v>72</v>
+      </c>
+      <c r="C107" s="13">
+        <v>40</v>
+      </c>
+      <c r="D107" s="13">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -31286,20 +31716,20 @@
   </sheetPr>
   <dimension ref="A1:E1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33065,46 +33495,123 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
+      <c r="A101" s="16">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="13">
+        <v>5</v>
+      </c>
+      <c r="C101" s="13">
+        <v>2</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="15">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="14">
+        <v>5</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1</v>
+      </c>
+      <c r="E102" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="16">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="14">
+        <v>5</v>
+      </c>
+      <c r="C103" s="14">
+        <v>2</v>
+      </c>
+      <c r="D103" s="14">
+        <v>1</v>
+      </c>
+      <c r="E103" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="15">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="14">
+        <v>5</v>
+      </c>
+      <c r="C104" s="14">
+        <v>2</v>
+      </c>
+      <c r="D104" s="14">
+        <v>1</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="16">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="14">
+        <v>5</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2</v>
+      </c>
+      <c r="D105" s="14">
+        <v>1</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="15">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="14">
+        <v>5</v>
+      </c>
+      <c r="C106" s="14">
+        <v>2</v>
+      </c>
+      <c r="D106" s="14">
+        <v>1</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="16">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="14">
+        <v>5</v>
+      </c>
+      <c r="C107" s="14">
+        <v>2</v>
+      </c>
+      <c r="D107" s="14">
+        <v>1</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -38599,20 +39106,20 @@
   </sheetPr>
   <dimension ref="A1:E1043"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -40192,7 +40699,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" ref="E94:E100" si="0">B94-B93</f>
+        <f t="shared" ref="E94:E101" si="0">B94-B93</f>
         <v>11</v>
       </c>
     </row>
@@ -40305,46 +40812,130 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="15">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="13">
+        <v>71</v>
+      </c>
+      <c r="C101" s="13">
+        <v>34</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="16">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="14">
+        <v>71</v>
+      </c>
+      <c r="C102" s="14">
+        <v>34</v>
+      </c>
+      <c r="D102" s="14">
+        <v>2</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" ref="E102:E107" si="1">B102-B101</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="15">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="14">
+        <v>71</v>
+      </c>
+      <c r="C103" s="14">
+        <v>34</v>
+      </c>
+      <c r="D103" s="14">
+        <v>2</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="16">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="14">
+        <v>71</v>
+      </c>
+      <c r="C104" s="14">
+        <v>34</v>
+      </c>
+      <c r="D104" s="14">
+        <v>2</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="15">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="14">
+        <v>71</v>
+      </c>
+      <c r="C105" s="14">
+        <v>34</v>
+      </c>
+      <c r="D105" s="14">
+        <v>2</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="16">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="14">
+        <v>71</v>
+      </c>
+      <c r="C106" s="14">
+        <v>34</v>
+      </c>
+      <c r="D106" s="14">
+        <v>2</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="15">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="14">
+        <v>71</v>
+      </c>
+      <c r="C107" s="14">
+        <v>34</v>
+      </c>
+      <c r="D107" s="14">
+        <v>2</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -45977,20 +46568,20 @@
   </sheetPr>
   <dimension ref="A1:E953"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -47488,7 +48079,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18">
-        <f t="shared" ref="E89:E100" si="1">B89-B88</f>
+        <f t="shared" ref="E89:E106" si="1">B89-B88</f>
         <v>1</v>
       </c>
     </row>
@@ -47676,13 +48267,13 @@
       <c r="A100" s="17">
         <v>44024</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="18">
         <v>16</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="18">
         <v>2</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="18">
         <v>0</v>
       </c>
       <c r="E100" s="18">
@@ -47691,53 +48282,130 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="A101" s="17">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="18">
+        <v>16</v>
+      </c>
+      <c r="C101" s="18">
+        <v>2</v>
+      </c>
+      <c r="D101" s="18">
+        <v>0</v>
+      </c>
+      <c r="E101" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
+      <c r="A102" s="17">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="18">
+        <v>18</v>
+      </c>
+      <c r="C102" s="18">
+        <v>5</v>
+      </c>
+      <c r="D102" s="18">
+        <v>0</v>
+      </c>
+      <c r="E102" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="17">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="18">
+        <v>18</v>
+      </c>
+      <c r="C103" s="18">
+        <v>5</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0</v>
+      </c>
+      <c r="E103" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="17">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="18">
+        <v>18</v>
+      </c>
+      <c r="C104" s="18">
+        <v>5</v>
+      </c>
+      <c r="D104" s="18">
+        <v>0</v>
+      </c>
+      <c r="E104" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
+      <c r="A105" s="17">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="18">
+        <v>19</v>
+      </c>
+      <c r="C105" s="18">
+        <v>7</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0</v>
+      </c>
+      <c r="E105" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="A106" s="17">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="18">
+        <v>19</v>
+      </c>
+      <c r="C106" s="18">
+        <v>7</v>
+      </c>
+      <c r="D106" s="18">
+        <v>0</v>
+      </c>
+      <c r="E106" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="A107" s="17">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="19">
+        <v>19</v>
+      </c>
+      <c r="C107" s="19">
+        <v>7</v>
+      </c>
+      <c r="D107" s="19">
+        <v>0</v>
+      </c>
+      <c r="E107" s="19">
+        <f t="shared" ref="E107" si="2">B107-B106</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -52834,20 +53502,20 @@
   </sheetPr>
   <dimension ref="A1:E988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -52867,1936 +53535,2041 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>43927</v>
       </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
         <f>B4-B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>43928</v>
       </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ref="E4:E100" si="0">B4-B3</f>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E107" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>43929</v>
       </c>
-      <c r="B5" s="22">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="B5" s="21">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>43930</v>
       </c>
-      <c r="B6" s="22">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>43931</v>
       </c>
-      <c r="B7" s="22">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>43932</v>
       </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>43933</v>
       </c>
-      <c r="B9" s="22">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>43934</v>
       </c>
-      <c r="B10" s="22">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>43935</v>
       </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>43936</v>
       </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="B12" s="21">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>43937</v>
       </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>43938</v>
       </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>43939</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>43940</v>
       </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>43941</v>
       </c>
-      <c r="B17" s="22">
-        <v>0</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>43942</v>
       </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="B18" s="21">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>43943</v>
       </c>
-      <c r="B19" s="22">
-        <v>0</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="B19" s="21">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>43944</v>
       </c>
-      <c r="B20" s="22">
-        <v>0</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="B20" s="21">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>43945</v>
       </c>
-      <c r="B21" s="22">
-        <v>0</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>43946</v>
       </c>
-      <c r="B22" s="22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>43947</v>
       </c>
-      <c r="B23" s="22">
-        <v>0</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>43948</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>43949</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>43950</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>1</v>
       </c>
-      <c r="C26" s="23">
-        <v>0</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>43951</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>1</v>
       </c>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>43952</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>1</v>
       </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>43953</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>1</v>
       </c>
-      <c r="C29" s="23">
-        <v>0</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>43954</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>1</v>
       </c>
-      <c r="C30" s="23">
-        <v>0</v>
-      </c>
-      <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>43955</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>1</v>
       </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="23">
-        <v>0</v>
-      </c>
-      <c r="E31" s="22">
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>43956</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>1</v>
       </c>
-      <c r="C32" s="23">
-        <v>0</v>
-      </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>43957</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>1</v>
       </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>43958</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>1</v>
       </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>43959</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>1</v>
       </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>43960</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>1</v>
       </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>43961</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>1</v>
       </c>
-      <c r="C37" s="23">
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>43962</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>1</v>
       </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>43963</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>1</v>
       </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="22">
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>43964</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <v>3</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>3</v>
       </c>
-      <c r="D40" s="23">
-        <v>0</v>
-      </c>
-      <c r="E40" s="22">
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>43965</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="22">
         <v>3</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>3</v>
       </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>43966</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>3</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>3</v>
       </c>
-      <c r="D42" s="23">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22">
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>43967</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>3</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>3</v>
       </c>
-      <c r="D43" s="23">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>43968</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <v>3</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>3</v>
       </c>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43969</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>4</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>4</v>
       </c>
-      <c r="D45" s="23">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>43970</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>4</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>4</v>
       </c>
-      <c r="D46" s="23">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>43971</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>5</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>4</v>
       </c>
-      <c r="D47" s="23">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>43972</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>5</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="22">
         <v>4</v>
       </c>
-      <c r="D48" s="23">
-        <v>0</v>
-      </c>
-      <c r="E48" s="22">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>43973</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>9</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>4</v>
       </c>
-      <c r="D49" s="23">
-        <v>0</v>
-      </c>
-      <c r="E49" s="22">
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+      <c r="E49" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>43974</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>9</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>4</v>
       </c>
-      <c r="D50" s="23">
-        <v>0</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>43975</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="22">
         <v>9</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <v>4</v>
       </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="22">
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>43976</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>11</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>5</v>
       </c>
-      <c r="D52" s="23">
-        <v>0</v>
-      </c>
-      <c r="E52" s="22">
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>43977</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>11</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>8</v>
       </c>
-      <c r="D53" s="23">
-        <v>0</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="D53" s="22">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>43978</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <v>11</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>8</v>
       </c>
-      <c r="D54" s="23">
-        <v>0</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>43979</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="22">
         <v>15</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>8</v>
       </c>
-      <c r="D55" s="23">
-        <v>0</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="D55" s="22">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>43980</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="22">
         <v>15</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>11</v>
       </c>
-      <c r="D56" s="23">
-        <v>0</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="D56" s="22">
+        <v>0</v>
+      </c>
+      <c r="E56" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>43981</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="22">
         <v>16</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>11</v>
       </c>
-      <c r="D57" s="23">
-        <v>0</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="D57" s="22">
+        <v>0</v>
+      </c>
+      <c r="E57" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>43982</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="22">
         <v>16</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <v>11</v>
       </c>
-      <c r="D58" s="23">
-        <v>0</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="D58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>43983</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="22">
         <v>16</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="22">
         <v>13</v>
       </c>
-      <c r="D59" s="23">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="D59" s="22">
+        <v>0</v>
+      </c>
+      <c r="E59" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>43984</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="22">
         <v>20</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="22">
         <v>13</v>
       </c>
-      <c r="D60" s="23">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="D60" s="22">
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>43985</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="22">
         <v>24</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="22">
         <v>16</v>
       </c>
-      <c r="D61" s="23">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="D61" s="22">
+        <v>0</v>
+      </c>
+      <c r="E61" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>43986</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="22">
         <v>31</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="22">
         <v>16</v>
       </c>
-      <c r="D62" s="23">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>43987</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="22">
         <v>32</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="22">
         <v>18</v>
       </c>
-      <c r="D63" s="23">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
+      <c r="D63" s="22">
+        <v>0</v>
+      </c>
+      <c r="E63" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>43988</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="22">
         <v>39</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>18</v>
       </c>
-      <c r="D64" s="23">
-        <v>0</v>
-      </c>
-      <c r="E64" s="22">
+      <c r="D64" s="22">
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>43989</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="22">
         <v>41</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>18</v>
       </c>
-      <c r="D65" s="23">
-        <v>0</v>
-      </c>
-      <c r="E65" s="22">
+      <c r="D65" s="22">
+        <v>0</v>
+      </c>
+      <c r="E65" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>43990</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="22">
         <v>43</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="22">
         <v>28</v>
       </c>
-      <c r="D66" s="23">
-        <v>0</v>
-      </c>
-      <c r="E66" s="22">
+      <c r="D66" s="22">
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>43991</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="22">
         <v>50</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="22">
         <v>28</v>
       </c>
-      <c r="D67" s="23">
-        <v>0</v>
-      </c>
-      <c r="E67" s="22">
+      <c r="D67" s="22">
+        <v>0</v>
+      </c>
+      <c r="E67" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>43992</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="22">
         <v>50</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="22">
         <v>28</v>
       </c>
-      <c r="D68" s="23">
-        <v>0</v>
-      </c>
-      <c r="E68" s="22">
+      <c r="D68" s="22">
+        <v>0</v>
+      </c>
+      <c r="E68" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>43993</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="22">
         <v>53</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="22">
         <v>28</v>
       </c>
-      <c r="D69" s="23">
-        <v>0</v>
-      </c>
-      <c r="E69" s="22">
+      <c r="D69" s="22">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>43994</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="22">
         <v>64</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="22">
         <v>37</v>
       </c>
-      <c r="D70" s="23">
-        <v>0</v>
-      </c>
-      <c r="E70" s="22">
+      <c r="D70" s="22">
+        <v>0</v>
+      </c>
+      <c r="E70" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="A71" s="23">
         <v>43995</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="22">
         <v>67</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="22">
         <v>37</v>
       </c>
-      <c r="D71" s="23">
-        <v>0</v>
-      </c>
-      <c r="E71" s="22">
+      <c r="D71" s="22">
+        <v>0</v>
+      </c>
+      <c r="E71" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="A72" s="23">
         <v>43996</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="22">
         <v>68</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="22">
         <v>37</v>
       </c>
-      <c r="D72" s="23">
-        <v>0</v>
-      </c>
-      <c r="E72" s="22">
+      <c r="D72" s="22">
+        <v>0</v>
+      </c>
+      <c r="E72" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>43997</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="22">
         <v>69</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="22">
         <v>42</v>
       </c>
-      <c r="D73" s="23">
-        <v>0</v>
-      </c>
-      <c r="E73" s="22">
+      <c r="D73" s="22">
+        <v>0</v>
+      </c>
+      <c r="E73" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+      <c r="A74" s="23">
         <v>43998</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="22">
         <v>73</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="22">
         <v>43</v>
       </c>
-      <c r="D74" s="23">
-        <v>0</v>
-      </c>
-      <c r="E74" s="22">
+      <c r="D74" s="22">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+      <c r="A75" s="23">
         <v>43999</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="21">
         <v>76</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="21">
         <v>43</v>
       </c>
-      <c r="D75" s="22">
-        <v>0</v>
-      </c>
-      <c r="E75" s="22">
+      <c r="D75" s="21">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+      <c r="A76" s="23">
         <v>44000</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="21">
         <v>82</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="21">
         <v>43</v>
       </c>
-      <c r="D76" s="22">
-        <v>0</v>
-      </c>
-      <c r="E76" s="22">
+      <c r="D76" s="21">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="A77" s="23">
         <v>44001</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="21">
         <v>87</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="21">
         <v>53</v>
       </c>
-      <c r="D77" s="22">
-        <v>0</v>
-      </c>
-      <c r="E77" s="22">
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>44002</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="21">
         <v>94</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="21">
         <v>53</v>
       </c>
-      <c r="D78" s="22">
-        <v>0</v>
-      </c>
-      <c r="E78" s="22">
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
+      <c r="A79" s="23">
         <v>44003</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="21">
         <v>94</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="21">
         <v>53</v>
       </c>
-      <c r="D79" s="22">
-        <v>0</v>
-      </c>
-      <c r="E79" s="22">
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>44004</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="21">
         <v>98</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="21">
         <v>67</v>
       </c>
-      <c r="D80" s="22">
-        <v>0</v>
-      </c>
-      <c r="E80" s="22">
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>44005</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="21">
         <v>104</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="21">
         <v>67</v>
       </c>
-      <c r="D81" s="22">
-        <v>0</v>
-      </c>
-      <c r="E81" s="22">
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>44006</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="21">
         <v>104</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="21">
         <v>67</v>
       </c>
-      <c r="D82" s="22">
-        <v>0</v>
-      </c>
-      <c r="E82" s="22">
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>44007</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="21">
         <v>106</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C83" s="21">
         <v>67</v>
       </c>
-      <c r="D83" s="22">
-        <v>0</v>
-      </c>
-      <c r="E83" s="22">
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>44008</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="21">
         <v>107</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="21">
         <v>67</v>
       </c>
-      <c r="D84" s="22">
-        <v>0</v>
-      </c>
-      <c r="E84" s="22">
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
+      <c r="A85" s="23">
         <v>44009</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="21">
         <v>112</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="21">
         <v>67</v>
       </c>
-      <c r="D85" s="22">
-        <v>0</v>
-      </c>
-      <c r="E85" s="22">
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
+      <c r="A86" s="23">
         <v>44010</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="21">
         <v>116</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C86" s="21">
         <v>67</v>
       </c>
-      <c r="D86" s="22">
-        <v>0</v>
-      </c>
-      <c r="E86" s="22">
+      <c r="D86" s="21">
+        <v>0</v>
+      </c>
+      <c r="E86" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
+      <c r="A87" s="23">
         <v>44011</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="21">
         <v>118</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="21">
         <v>73</v>
       </c>
-      <c r="D87" s="22">
-        <v>0</v>
-      </c>
-      <c r="E87" s="22">
+      <c r="D87" s="21">
+        <v>0</v>
+      </c>
+      <c r="E87" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="24">
+      <c r="A88" s="23">
         <v>44012</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="21">
         <v>128</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="21">
         <v>77</v>
       </c>
-      <c r="D88" s="22">
-        <v>0</v>
-      </c>
-      <c r="E88" s="22">
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
+      <c r="A89" s="23">
         <v>44013</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="21">
         <v>128</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="21">
         <v>77</v>
       </c>
-      <c r="D89" s="22">
-        <v>0</v>
-      </c>
-      <c r="E89" s="22">
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>44014</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="21">
         <v>131</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="21">
         <v>77</v>
       </c>
-      <c r="D90" s="22">
-        <v>0</v>
-      </c>
-      <c r="E90" s="22">
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
+      <c r="A91" s="23">
         <v>44015</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="21">
         <v>133</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="21">
         <v>87</v>
       </c>
-      <c r="D91" s="22">
-        <v>0</v>
-      </c>
-      <c r="E91" s="22">
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
+      <c r="A92" s="23">
         <v>44016</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="21">
         <v>133</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="21">
         <v>87</v>
       </c>
-      <c r="D92" s="22">
-        <v>0</v>
-      </c>
-      <c r="E92" s="22">
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="24">
+      <c r="A93" s="23">
         <v>44017</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="21">
         <v>133</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="21">
         <v>87</v>
       </c>
-      <c r="D93" s="22">
-        <v>0</v>
-      </c>
-      <c r="E93" s="22">
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>44018</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="21">
         <v>137</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="21">
         <v>93</v>
       </c>
-      <c r="D94" s="22">
-        <v>0</v>
-      </c>
-      <c r="E94" s="22">
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
+      <c r="A95" s="23">
         <v>44019</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="21">
         <v>141</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="21">
         <v>94</v>
       </c>
-      <c r="D95" s="22">
-        <v>0</v>
-      </c>
-      <c r="E95" s="22">
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
+      <c r="A96" s="23">
         <v>44020</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="21">
         <v>144</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="21">
         <v>94</v>
       </c>
-      <c r="D96" s="22">
-        <v>0</v>
-      </c>
-      <c r="E96" s="22">
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
+      <c r="A97" s="23">
         <v>44021</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="21">
         <v>148</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="21">
         <v>102</v>
       </c>
-      <c r="D97" s="22">
-        <v>0</v>
-      </c>
-      <c r="E97" s="22">
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>44022</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="21">
         <v>152</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="21">
         <v>106</v>
       </c>
-      <c r="D98" s="22">
-        <v>0</v>
-      </c>
-      <c r="E98" s="22">
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
+      <c r="A99" s="23">
         <v>44023</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="21">
         <v>155</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="21">
         <v>106</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="21">
         <v>1</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
+      <c r="A100" s="23">
         <v>44024</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="21">
         <v>155</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="21">
         <v>106</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="21">
         <v>1</v>
       </c>
-      <c r="E100" s="22">
+      <c r="E100" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-    </row>
-    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-    </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-    </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="21">
+        <v>158</v>
+      </c>
+      <c r="C101" s="21">
+        <v>116</v>
+      </c>
+      <c r="D101" s="21">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="21">
+        <v>162</v>
+      </c>
+      <c r="C102" s="21">
+        <v>116</v>
+      </c>
+      <c r="D102" s="21">
+        <v>1</v>
+      </c>
+      <c r="E102" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="21">
+        <v>166</v>
+      </c>
+      <c r="C103" s="21">
+        <v>119</v>
+      </c>
+      <c r="D103" s="21">
+        <v>1</v>
+      </c>
+      <c r="E103" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="21">
+        <v>166</v>
+      </c>
+      <c r="C104" s="21">
+        <v>119</v>
+      </c>
+      <c r="D104" s="21">
+        <v>1</v>
+      </c>
+      <c r="E104" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="21">
+        <v>170</v>
+      </c>
+      <c r="C105" s="21">
+        <v>120</v>
+      </c>
+      <c r="D105" s="21">
+        <v>1</v>
+      </c>
+      <c r="E105" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="21">
+        <v>175</v>
+      </c>
+      <c r="C106" s="21">
+        <v>120</v>
+      </c>
+      <c r="D106" s="21">
+        <v>1</v>
+      </c>
+      <c r="E106" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="21">
+        <v>175</v>
+      </c>
+      <c r="C107" s="21">
+        <v>120</v>
+      </c>
+      <c r="D107" s="21">
+        <v>1</v>
+      </c>
+      <c r="E107" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-    </row>
-    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-    </row>
-    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-    </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-    </row>
-    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-    </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-    </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
@@ -59974,20 +60747,20 @@
   </sheetPr>
   <dimension ref="A1:E974"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -60007,1798 +60780,1882 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>43927</v>
       </c>
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>43928</v>
       </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>43929</v>
       </c>
-      <c r="B5" s="25">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>43930</v>
       </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>43931</v>
       </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>43932</v>
       </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>43933</v>
       </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>43934</v>
       </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>43935</v>
       </c>
-      <c r="B11" s="25">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>43936</v>
       </c>
-      <c r="B12" s="25">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>43937</v>
       </c>
-      <c r="B13" s="25">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>43938</v>
       </c>
-      <c r="B14" s="25">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>43939</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <f t="shared" ref="E15:E100" si="0">B15-B14</f>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" ref="E15:E107" si="0">B15-B14</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>43940</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>2</v>
       </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>43941</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>43942</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>2</v>
       </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>43943</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>43944</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>2</v>
       </c>
-      <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>43945</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>2</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>43946</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>1</v>
       </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>43947</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>6</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>2</v>
       </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>43948</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>6</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>2</v>
       </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>43949</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>6</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>2</v>
       </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>43950</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>6</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>2</v>
       </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>43951</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>6</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>4</v>
       </c>
-      <c r="D27" s="25">
-        <v>0</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>43952</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>6</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>4</v>
       </c>
-      <c r="D28" s="25">
-        <v>0</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>43953</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>6</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>4</v>
       </c>
-      <c r="D29" s="25">
-        <v>0</v>
-      </c>
-      <c r="E29" s="25">
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>43954</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>8</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>4</v>
       </c>
-      <c r="D30" s="25">
-        <v>0</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>43955</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>8</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>4</v>
       </c>
-      <c r="D31" s="25">
-        <v>0</v>
-      </c>
-      <c r="E31" s="25">
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>43956</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>9</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>4</v>
       </c>
-      <c r="D32" s="25">
-        <v>0</v>
-      </c>
-      <c r="E32" s="25">
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>43957</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>9</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>7</v>
       </c>
-      <c r="D33" s="25">
-        <v>0</v>
-      </c>
-      <c r="E33" s="25">
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>43958</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>9</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>7</v>
       </c>
-      <c r="D34" s="25">
-        <v>0</v>
-      </c>
-      <c r="E34" s="25">
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>43959</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>12</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <v>8</v>
       </c>
-      <c r="D35" s="25">
-        <v>0</v>
-      </c>
-      <c r="E35" s="25">
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>43960</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <v>12</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="24">
         <v>8</v>
       </c>
-      <c r="D36" s="25">
-        <v>0</v>
-      </c>
-      <c r="E36" s="25">
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>43961</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <v>12</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>8</v>
       </c>
-      <c r="D37" s="25">
-        <v>0</v>
-      </c>
-      <c r="E37" s="25">
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>43962</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="24">
         <v>14</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>8</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <v>1</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>43963</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>15</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>8</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <v>1</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>43964</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>15</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="24">
         <v>9</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
         <v>1</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>43965</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>15</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>11</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>43966</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <v>15</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <v>11</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <v>1</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>43967</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>15</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>11</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <v>1</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>43968</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="24">
         <v>15</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="24">
         <v>11</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <v>1</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43969</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>18</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>14</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
         <v>1</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>43970</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <v>20</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="24">
         <v>14</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>43971</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="24">
         <v>20</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="24">
         <v>14</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="24">
         <v>1</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>43972</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="24">
         <v>22</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="24">
         <v>14</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="24">
         <v>1</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>43973</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <v>26</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="24">
         <v>17</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="24">
         <v>3</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>43974</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <v>26</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="24">
         <v>17</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <v>3</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>43975</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <v>26</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="24">
         <v>17</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24">
         <v>3</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>43976</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="24">
         <v>26</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="24">
         <v>17</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="24">
         <v>3</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>43977</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="24">
         <v>26</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="24">
         <v>17</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24">
         <v>3</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>43978</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="24">
         <v>27</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="24">
         <v>17</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="24">
         <v>3</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>43979</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <v>28</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="24">
         <v>17</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="24">
         <v>3</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>43980</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <v>28</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="24">
         <v>19</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="24">
         <v>3</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>43981</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <v>31</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="24">
         <v>19</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="24">
         <v>3</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>43982</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="24">
         <v>31</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="24">
         <v>19</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="24">
         <v>3</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>43983</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="24">
         <v>34</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="24">
         <v>22</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="24">
         <v>3</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>43984</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="24">
         <v>40</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C60" s="24">
         <v>22</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="24">
         <v>3</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>43985</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <v>42</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <v>22</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="24">
         <v>3</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>43986</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="24">
         <v>48</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="24">
         <v>26</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <v>3</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>43987</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <v>62</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="24">
         <v>31</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="24">
         <v>3</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>43988</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="24">
         <v>64</v>
       </c>
-      <c r="C64" s="25">
+      <c r="C64" s="24">
         <v>32</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="24">
         <v>3</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>43989</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="24">
         <v>64</v>
       </c>
-      <c r="C65" s="25">
+      <c r="C65" s="24">
         <v>32</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="24">
         <v>3</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>43990</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="24">
         <v>76</v>
       </c>
-      <c r="C66" s="25">
+      <c r="C66" s="24">
         <v>34</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="24">
         <v>3</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>43991</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="24">
         <v>78</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C67" s="24">
         <v>34</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="24">
         <v>3</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>43992</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="24">
         <v>98</v>
       </c>
-      <c r="C68" s="25">
+      <c r="C68" s="24">
         <v>34</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="24">
         <v>3</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="24">
+      <c r="A69" s="23">
         <v>43993</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>100</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="25">
         <v>35</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="25">
         <v>3</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>43994</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>104</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="25">
         <v>37</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="25">
         <v>3</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="24">
+      <c r="A71" s="23">
         <v>43995</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>104</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="25">
         <v>37</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="25">
         <v>3</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="24">
+      <c r="A72" s="23">
         <v>43996</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>104</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="25">
         <v>47</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="25">
         <v>4</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>43997</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>114</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="25">
         <v>47</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="25">
         <v>4</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="24">
+      <c r="A74" s="23">
         <v>43998</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74" s="26">
         <v>123</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="26">
         <v>47</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="26">
         <v>4</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="24">
+      <c r="A75" s="23">
         <v>43999</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="26">
         <v>124</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="26">
         <v>94</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="26">
         <v>4</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="24">
+      <c r="A76" s="23">
         <v>44000</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="26">
         <v>135</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="26">
         <v>94</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="26">
         <v>4</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+      <c r="A77" s="23">
         <v>44001</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="26">
         <v>142</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="26">
         <v>96</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77" s="26">
         <v>4</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>44002</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="26">
         <v>144</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="26">
         <v>98</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="26">
         <v>4</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="24">
+      <c r="A79" s="23">
         <v>44003</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79" s="26">
         <v>146</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="26">
         <v>98</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="26">
         <v>4</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>44004</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="26">
         <v>156</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="26">
         <v>100</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="26">
         <v>5</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>44005</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="26">
         <v>167</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="26">
         <v>126</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <v>5</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>44006</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="26">
         <v>171</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="26">
         <v>126</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="26">
         <v>5</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>44007</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="26">
         <v>173</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="26">
         <v>131</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="26">
         <v>5</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E83" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>44008</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="26">
         <v>200</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="26">
         <v>149</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="26">
         <v>5</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="24">
+      <c r="A85" s="23">
         <v>44009</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="26">
         <v>200</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="26">
         <v>149</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85" s="26">
         <v>5</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="24">
+      <c r="A86" s="23">
         <v>44010</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="26">
         <v>200</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="26">
         <v>151</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="26">
         <v>5</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="24">
+      <c r="A87" s="23">
         <v>44011</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="26">
         <v>207</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="26">
         <v>151</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="26">
         <v>5</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="24">
+      <c r="A88" s="23">
         <v>44012</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="26">
         <v>214</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="26">
         <v>151</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="26">
         <v>5</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="24">
+      <c r="A89" s="23">
         <v>44013</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="26">
         <v>223</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="26">
         <v>154</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="26">
         <v>5</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E89" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>44014</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="26">
         <v>233</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="26">
         <v>154</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="26">
         <v>5</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E90" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="24">
+      <c r="A91" s="23">
         <v>44015</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="26">
         <v>240</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="26">
         <v>186</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="26">
         <v>5</v>
       </c>
-      <c r="E91" s="27">
+      <c r="E91" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="24">
+      <c r="A92" s="23">
         <v>44016</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="26">
         <v>242</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="26">
         <v>186</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92" s="26">
         <v>5</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E92" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="24">
+      <c r="A93" s="23">
         <v>44017</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93" s="26">
         <v>242</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="26">
         <v>186</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="26">
         <v>5</v>
       </c>
-      <c r="E93" s="27">
+      <c r="E93" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>44018</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="26">
         <v>248</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="26">
         <v>186</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="26">
         <v>5</v>
       </c>
-      <c r="E94" s="27">
+      <c r="E94" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="24">
+      <c r="A95" s="23">
         <v>44019</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="26">
         <v>253</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="26">
         <v>188</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="26">
         <v>5</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E95" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="24">
+      <c r="A96" s="23">
         <v>44020</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="26">
         <v>265</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="26">
         <v>206</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96" s="26">
         <v>5</v>
       </c>
-      <c r="E96" s="27">
+      <c r="E96" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="24">
+      <c r="A97" s="23">
         <v>44021</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="26">
         <v>276</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="26">
         <v>211</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="26">
         <v>5</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E97" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="24">
+      <c r="A98" s="23">
         <v>44022</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="26">
         <v>284</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="26">
         <v>218</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98" s="26">
         <v>5</v>
       </c>
-      <c r="E98" s="27">
+      <c r="E98" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="24">
+      <c r="A99" s="23">
         <v>44023</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="26">
         <v>295</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="26">
         <v>218</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="26">
         <v>5</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="24">
+      <c r="A100" s="23">
         <v>44024</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="26">
         <v>295</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="26">
         <v>218</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="26">
         <v>5</v>
       </c>
-      <c r="E100" s="27">
+      <c r="E100" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="23">
+        <v>44025</v>
+      </c>
+      <c r="B101" s="26">
+        <v>301</v>
+      </c>
+      <c r="C101" s="26">
+        <v>218</v>
+      </c>
+      <c r="D101" s="26">
+        <v>5</v>
+      </c>
+      <c r="E101" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="23">
+        <v>44026</v>
+      </c>
+      <c r="B102" s="26">
+        <v>324</v>
+      </c>
+      <c r="C102" s="26">
+        <v>218</v>
+      </c>
+      <c r="D102" s="26">
+        <v>5</v>
+      </c>
+      <c r="E102" s="26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="23">
+        <v>44027</v>
+      </c>
+      <c r="B103" s="26">
+        <v>349</v>
+      </c>
+      <c r="C103" s="26">
+        <v>222</v>
+      </c>
+      <c r="D103" s="26">
+        <v>6</v>
+      </c>
+      <c r="E103" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="23">
+        <v>44028</v>
+      </c>
+      <c r="B104" s="26">
+        <v>355</v>
+      </c>
+      <c r="C104" s="26">
+        <v>234</v>
+      </c>
+      <c r="D104" s="26">
+        <v>6</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="23">
+        <v>44029</v>
+      </c>
+      <c r="B105" s="26">
+        <v>384</v>
+      </c>
+      <c r="C105" s="26">
+        <v>284</v>
+      </c>
+      <c r="D105" s="26">
+        <v>6</v>
+      </c>
+      <c r="E105" s="26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="23">
+        <v>44030</v>
+      </c>
+      <c r="B106" s="26">
+        <v>386</v>
+      </c>
+      <c r="C106" s="26">
+        <v>284</v>
+      </c>
+      <c r="D106" s="26">
+        <v>6</v>
+      </c>
+      <c r="E106" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="23">
+        <v>44031</v>
+      </c>
+      <c r="B107" s="26">
+        <v>386</v>
+      </c>
+      <c r="C107" s="26">
+        <v>284</v>
+      </c>
+      <c r="D107" s="26">
+        <v>7</v>
+      </c>
+      <c r="E107" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
@@ -66980,27 +67837,15 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A971" s="14"/>
-      <c r="B971" s="14"/>
-      <c r="C971" s="14"/>
-      <c r="D971" s="14"/>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A972" s="14"/>
-      <c r="B972" s="14"/>
-      <c r="C972" s="14"/>
-      <c r="D972" s="14"/>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A973" s="14"/>
-      <c r="B973" s="14"/>
-      <c r="C973" s="14"/>
-      <c r="D973" s="14"/>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A974" s="14"/>
-      <c r="B974" s="14"/>
-      <c r="C974" s="14"/>
-      <c r="D974" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
